--- a/output/1Y_P98_1VAL-D.xlsx
+++ b/output/1Y_P98_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>547.6301</v>
       </c>
-      <c r="G2" s="1">
-        <v>547.6301</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1394</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1394</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E3" s="1">
+        <v>547.6301</v>
+      </c>
       <c r="F3" s="1">
         <v>554.8742999999999</v>
       </c>
-      <c r="G3" s="1">
-        <v>1102.5044</v>
-      </c>
       <c r="H3" s="1">
-        <v>19766.3608</v>
+        <v>9818.241599999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1405</v>
+        <v>9818.241599999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2605</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19766.3608</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0091</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E4" s="1">
+        <v>1102.5044</v>
+      </c>
       <c r="F4" s="1">
         <v>546.9083000000001</v>
       </c>
-      <c r="G4" s="1">
-        <v>1649.4128</v>
-      </c>
       <c r="H4" s="1">
-        <v>30002.4881</v>
+        <v>20054.335</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1883</v>
+        <v>20054.335</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1405</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30002.4881</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.007900000000000001</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.485</v>
       </c>
+      <c r="E5" s="1">
+        <v>1649.4128</v>
+      </c>
       <c r="F5" s="1">
         <v>606.6121000000001</v>
       </c>
-      <c r="G5" s="1">
-        <v>2256.0248</v>
-      </c>
       <c r="H5" s="1">
-        <v>36997.9047</v>
+        <v>27049.7094</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.7303</v>
+        <v>27049.7094</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>18.1883</v>
+      </c>
+      <c r="M5" s="1">
         <v>1.538</v>
       </c>
-      <c r="L5" s="1">
-        <v>2283.1171</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7716.8829</v>
+        <v>1526.0866</v>
       </c>
       <c r="O5" s="1">
-        <v>2283.1171</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39281.0218</v>
+        <v>-8473.913399999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.018</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E6" s="1">
+        <v>2256.0248</v>
+      </c>
       <c r="F6" s="1">
-        <v>605.8604</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2861.8853</v>
+        <v>600.2863</v>
       </c>
       <c r="H6" s="1">
-        <v>48332.663</v>
+        <v>38100.6496</v>
       </c>
       <c r="I6" s="1">
-        <v>50285.3896</v>
+        <v>1526.0866</v>
       </c>
       <c r="J6" s="1">
-        <v>17.5707</v>
+        <v>39626.7362</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40190.7608</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8149</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10285.3896</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1997.7275</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50330.3904</v>
+        <v>-10190.7608</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0213</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.414</v>
       </c>
+      <c r="E7" s="1">
+        <v>2856.3111</v>
+      </c>
       <c r="F7" s="1">
-        <v>590.6391</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3452.5244</v>
+        <v>585.2051</v>
       </c>
       <c r="H7" s="1">
-        <v>59810.4965</v>
+        <v>49481.8775</v>
       </c>
       <c r="I7" s="1">
-        <v>60570.7793</v>
+        <v>1335.3258</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5439</v>
+        <v>50817.2033</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50381.5217</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.6387</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10285.3896</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1712.3378</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61522.8344</v>
+        <v>-10190.7608</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0198</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E8" s="1">
+        <v>3441.5162</v>
+      </c>
       <c r="F8" s="1">
-        <v>562.123</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4014.6474</v>
+        <v>556.9512999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>73076.6191</v>
+        <v>62644.1987</v>
       </c>
       <c r="I8" s="1">
-        <v>70856.1689</v>
+        <v>1144.565</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6494</v>
+        <v>63788.7637</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60572.2825</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.6005</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10285.3896</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1426.9482</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74503.5673</v>
+        <v>-10190.7608</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0417</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.699</v>
       </c>
+      <c r="E9" s="1">
+        <v>3998.4675</v>
+      </c>
       <c r="F9" s="1">
-        <v>581.1283</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4595.7757</v>
+        <v>575.7817</v>
       </c>
       <c r="H9" s="1">
-        <v>80918.74159999999</v>
+        <v>70401.8172</v>
       </c>
       <c r="I9" s="1">
-        <v>81141.5586</v>
+        <v>953.8040999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6557</v>
+        <v>71355.6213</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70763.0433</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6975</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10285.3896</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1141.5586</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82060.3002</v>
+        <v>-10190.7608</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0289</v>
+        <v>-0.033</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E10" s="1">
+        <v>4574.2492</v>
+      </c>
       <c r="F10" s="1">
-        <v>569.5279</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5165.3036</v>
+        <v>564.2881</v>
       </c>
       <c r="H10" s="1">
-        <v>92798.8116</v>
+        <v>82180.04700000001</v>
       </c>
       <c r="I10" s="1">
-        <v>91426.9482</v>
+        <v>763.0433</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7002</v>
+        <v>82943.0903</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80953.80409999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6977</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10285.3896</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>856.1689</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93654.9806</v>
+        <v>-10190.7608</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0173</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.696</v>
       </c>
+      <c r="E11" s="1">
+        <v>5138.5373</v>
+      </c>
       <c r="F11" s="1">
-        <v>550.1385</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5715.4421</v>
+        <v>545.0771</v>
       </c>
       <c r="H11" s="1">
-        <v>106302.0796</v>
+        <v>95572.1697</v>
       </c>
       <c r="I11" s="1">
-        <v>101712.3378</v>
+        <v>572.2825</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7961</v>
+        <v>96144.4522</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91144.565</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7375</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10285.3896</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>570.7793</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106872.8589</v>
+        <v>-10190.7608</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.031</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E12" s="1">
+        <v>5683.6144</v>
+      </c>
       <c r="F12" s="1">
-        <v>575.5545</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6290.9967</v>
+        <v>570.2592</v>
       </c>
       <c r="H12" s="1">
-        <v>111839.4512</v>
+        <v>101041.5917</v>
       </c>
       <c r="I12" s="1">
-        <v>111997.7275</v>
+        <v>381.5217</v>
       </c>
       <c r="J12" s="1">
-        <v>17.8029</v>
+        <v>101423.1134</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101335.3258</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.8294</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10285.3896</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>285.3896</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112124.8408</v>
+        <v>-10190.7608</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0406</v>
+        <v>-0.0445</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E13" s="1">
+        <v>6253.8736</v>
+      </c>
       <c r="F13" s="1">
-        <v>585.715</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6876.7117</v>
+        <v>580.3262</v>
       </c>
       <c r="H13" s="1">
-        <v>120132.0265</v>
+        <v>109251.4203</v>
       </c>
       <c r="I13" s="1">
-        <v>122283.1171</v>
+        <v>190.7608</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7822</v>
+        <v>109442.1811</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111526.0866</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.8331</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10285.3896</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120132.0265</v>
+        <v>-10190.7608</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0163</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.4279</v>
       </c>
+      <c r="E14" s="1">
+        <v>6834.1999</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6876.7117</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6253.8736</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118487.9404</v>
       </c>
       <c r="I14" s="1">
-        <v>122283.1171</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7822</v>
+        <v>118487.9404</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111526.0866</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3188</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119224.9882</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119224.9882</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119224.9882</v>
+        <v>108426.5343</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0838</v>
+        <v>-0.008</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.2605</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>547.6301</v>
       </c>
       <c r="G2" s="1">
-        <v>547.6301</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1394</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1394</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.0221</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>547.6301</v>
       </c>
       <c r="F3" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1102.5044</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19766.3608</v>
+        <v>9818.241599999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1405</v>
+        <v>9818.241599999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2605</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19766.3608</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0091</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.2846</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1102.5044</v>
       </c>
       <c r="F4" s="1">
         <v>546.7714999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1649.276</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20054.335</v>
       </c>
       <c r="I4" s="1">
-        <v>29997.499</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1883</v>
+        <v>20054.335</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19997.499</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1382</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9997.499</v>
       </c>
-      <c r="O4" s="1">
-        <v>2.501</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30002.501</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.007900000000000001</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.485</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1649.276</v>
       </c>
       <c r="F5" s="1">
         <v>606.7637999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2256.0398</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>36998.1496</v>
+        <v>27047.4662</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>2.501</v>
       </c>
       <c r="J5" s="1">
-        <v>17.7302</v>
+        <v>27049.9672</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>18.1898</v>
+      </c>
+      <c r="M5" s="1">
         <v>1.538</v>
       </c>
-      <c r="L5" s="1">
-        <v>2282.9278</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7719.5732</v>
+        <v>1526.0866</v>
       </c>
       <c r="O5" s="1">
-        <v>2282.9278</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39281.0774</v>
+        <v>-8476.4144</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.018</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.9765</v>
       </c>
       <c r="E6" s="1">
+        <v>2256.0398</v>
+      </c>
+      <c r="F6" s="1">
+        <v>678.9435999999999</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>704.5723</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2960.612</v>
-      </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>38100.9018</v>
       </c>
       <c r="I6" s="1">
-        <v>51961.171</v>
+        <v>1526.0866</v>
       </c>
       <c r="J6" s="1">
-        <v>17.5508</v>
+        <v>39626.9884</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>41526.0866</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.4066</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-11961.171</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>321.7568</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50321.7568</v>
+        <v>-11526.0866</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0211</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.414</v>
       </c>
       <c r="E7" s="1">
+        <v>2934.9834</v>
+      </c>
+      <c r="F7" s="1">
+        <v>528.48</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>502.8513</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3463.4633</v>
-      </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50844.7718</v>
       </c>
       <c r="I7" s="1">
-        <v>60717.8241</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.531</v>
+        <v>50844.7718</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50729.0366</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2843</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-8756.6531</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1565.1037</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61565.1037</v>
+        <v>-9202.950000000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0206</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.2974</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3463.4633</v>
       </c>
       <c r="F8" s="1">
         <v>382.1623</v>
       </c>
       <c r="G8" s="1">
-        <v>3845.6256</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>63043.6916</v>
       </c>
       <c r="I8" s="1">
-        <v>67710.39969999999</v>
+        <v>797.05</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6071</v>
+        <v>63840.7416</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57721.6122</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.6659</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6992.5756</v>
       </c>
-      <c r="O8" s="1">
-        <v>4572.5281</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74572.5281</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.042</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.699</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3845.6256</v>
       </c>
       <c r="F9" s="1">
         <v>697.9702</v>
       </c>
       <c r="G9" s="1">
-        <v>4543.5958</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>67710.6991</v>
       </c>
       <c r="I9" s="1">
-        <v>80063.7743</v>
+        <v>3804.4744</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6212</v>
+        <v>71515.1735</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70074.9868</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.222</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12353.3746</v>
       </c>
-      <c r="O9" s="1">
-        <v>2219.1535</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82219.1535</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0278</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.0595</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4543.5958</v>
       </c>
       <c r="F10" s="1">
         <v>465.9223</v>
       </c>
       <c r="G10" s="1">
-        <v>5009.5181</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>81629.33349999999</v>
       </c>
       <c r="I10" s="1">
-        <v>88478.0977</v>
+        <v>1451.0998</v>
       </c>
       <c r="J10" s="1">
-        <v>17.662</v>
+        <v>83080.4333</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78489.3103</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.2747</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8414.3235</v>
       </c>
-      <c r="O10" s="1">
-        <v>3804.8301</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93804.83010000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0172</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.696</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5009.5181</v>
       </c>
       <c r="F11" s="1">
         <v>367.0862</v>
       </c>
       <c r="G11" s="1">
-        <v>5376.6042</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>93172.5278</v>
       </c>
       <c r="I11" s="1">
-        <v>95341.1406</v>
+        <v>3036.7764</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7326</v>
+        <v>96209.3042</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>85352.35309999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.038</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6863.0428</v>
       </c>
-      <c r="O11" s="1">
-        <v>6941.7872</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106941.7872</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0302</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.8704</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5376.6042</v>
       </c>
       <c r="F12" s="1">
         <v>810.9228000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6187.5271</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>95583.65730000001</v>
       </c>
       <c r="I12" s="1">
-        <v>109832.6559</v>
+        <v>6173.7335</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7507</v>
+        <v>101757.3908</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99843.86840000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.5701</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-14491.5153</v>
       </c>
-      <c r="O12" s="1">
-        <v>2450.2719</v>
-      </c>
-      <c r="P12" s="1">
-        <v>112450.2719</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0384</v>
+        <v>-0.0419</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.5604</v>
       </c>
       <c r="E13" s="1">
+        <v>6187.5271</v>
+      </c>
+      <c r="F13" s="1">
+        <v>665.2592</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>681.627</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6869.1541</v>
-      </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>108092.3854</v>
       </c>
       <c r="I13" s="1">
-        <v>121802.2985</v>
+        <v>1682.2182</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7318</v>
+        <v>109774.6036</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111526.0866</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.0243</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11969.6427</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>480.6293</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120480.6293</v>
+        <v>-11682.2182</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0161</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>17.4279</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6852.7863</v>
       </c>
       <c r="F14" s="1">
-        <v>-6869.1541</v>
+        <v>-6852.7863</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118810.1825</v>
       </c>
       <c r="I14" s="1">
-        <v>121802.2985</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7318</v>
+        <v>118810.1825</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111526.0866</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2746</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119093.9586</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119574.5879</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119574.5879</v>
+        <v>118810.1825</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08359999999999999</v>
+        <v>-0.0081</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.2605</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>547.6301</v>
       </c>
       <c r="G2" s="1">
-        <v>547.6301</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1394</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1394</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.0221</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>547.6301</v>
       </c>
       <c r="F3" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1102.5044</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19766.3608</v>
+        <v>9818.241599999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1405</v>
+        <v>9818.241599999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2605</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19766.3608</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0091</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.2846</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1102.5044</v>
       </c>
       <c r="F4" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1649.4128</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30002.4881</v>
+        <v>20054.335</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1883</v>
+        <v>20054.335</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1405</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30002.4881</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.007900000000000001</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.485</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1649.4128</v>
       </c>
       <c r="F5" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2256.0248</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>36997.9047</v>
+        <v>27049.7094</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.7303</v>
+        <v>27049.7094</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>18.1883</v>
+      </c>
+      <c r="M5" s="1">
         <v>1.538</v>
       </c>
-      <c r="L5" s="1">
-        <v>2283.1171</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7716.8829</v>
+        <v>1526.0866</v>
       </c>
       <c r="O5" s="1">
-        <v>2283.1171</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39281.0218</v>
+        <v>-8473.913399999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.018</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.9765</v>
       </c>
       <c r="E6" s="1">
+        <v>2256.0248</v>
+      </c>
+      <c r="F6" s="1">
+        <v>678.9435999999999</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>723.5365</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2979.5613</v>
-      </c>
       <c r="H6" s="1">
-        <v>50320.0232</v>
+        <v>38100.6496</v>
       </c>
       <c r="I6" s="1">
-        <v>52283.1171</v>
+        <v>1526.0866</v>
       </c>
       <c r="J6" s="1">
-        <v>17.5473</v>
+        <v>39626.7362</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>41526.0866</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.4068</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-12283.1171</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50320.0232</v>
+        <v>-11526.0866</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0211</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.414</v>
       </c>
       <c r="E7" s="1">
+        <v>2934.9685</v>
+      </c>
+      <c r="F7" s="1">
+        <v>572.0779</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>527.485</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3507.0463</v>
-      </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50844.5131</v>
       </c>
       <c r="I7" s="1">
-        <v>61468.7416</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5272</v>
+        <v>50844.5131</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51488.251</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.543</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-9185.6245</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>814.3755</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61569.3943</v>
+        <v>-9962.1643</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0207</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.2974</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3507.0463</v>
       </c>
       <c r="F8" s="1">
         <v>396.7468</v>
       </c>
       <c r="G8" s="1">
-        <v>3903.7931</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>63837.0111</v>
       </c>
       <c r="I8" s="1">
-        <v>68728.1756</v>
+        <v>37.8357</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6055</v>
+        <v>63874.8468</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58747.685</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.7513</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7259.434</v>
       </c>
-      <c r="O8" s="1">
-        <v>3554.9415</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74613.73540000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0425</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.699</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3903.7931</v>
       </c>
       <c r="F9" s="1">
         <v>720.1156999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4623.9088</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>68734.8658</v>
       </c>
       <c r="I9" s="1">
-        <v>81473.5043</v>
+        <v>2778.4016</v>
       </c>
       <c r="J9" s="1">
-        <v>17.62</v>
+        <v>71513.2675</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71493.01360000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.3137</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12745.3286</v>
       </c>
-      <c r="O9" s="1">
-        <v>809.6129</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82223.7007</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0282</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.0595</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4623.9088</v>
       </c>
       <c r="F10" s="1">
         <v>486.9773</v>
       </c>
       <c r="G10" s="1">
-        <v>5110.8861</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>83072.2216</v>
       </c>
       <c r="I10" s="1">
-        <v>90268.0708</v>
+        <v>33.073</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6619</v>
+        <v>83105.29459999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80287.58010000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3636</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8794.566500000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>2015.0464</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93836.2047</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0175</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.696</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5110.8861</v>
       </c>
       <c r="F11" s="1">
         <v>388.3189</v>
       </c>
       <c r="G11" s="1">
-        <v>5499.205</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>95057.88250000001</v>
       </c>
       <c r="I11" s="1">
-        <v>97528.0805</v>
+        <v>1238.5065</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7349</v>
+        <v>96296.389</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87547.5898</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1296</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7260.0097</v>
       </c>
-      <c r="O11" s="1">
-        <v>4755.0367</v>
-      </c>
-      <c r="P11" s="1">
-        <v>107035.3008</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0308</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.8704</v>
       </c>
       <c r="E12" s="1">
+        <v>5499.205</v>
+      </c>
+      <c r="F12" s="1">
+        <v>782.2151</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>825.6691</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6324.8741</v>
-      </c>
       <c r="H12" s="1">
-        <v>112441.7142</v>
+        <v>97763.21709999999</v>
       </c>
       <c r="I12" s="1">
-        <v>112283.1171</v>
+        <v>3978.4968</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7526</v>
+        <v>101741.7139</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101526.0866</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.462</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-14755.0367</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112441.7142</v>
+        <v>-13978.4968</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0392</v>
+        <v>-0.0428</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.5604</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6281.4201</v>
       </c>
       <c r="F13" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6894.3372</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>120439.9344</v>
+        <v>109732.6407</v>
       </c>
       <c r="I13" s="1">
-        <v>122283.1171</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7367</v>
+        <v>109732.6407</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111526.0866</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7549</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>120439.9344</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0163</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>17.4279</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6850.8832</v>
       </c>
       <c r="F14" s="1">
-        <v>-6894.3372</v>
+        <v>-6850.8832</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118777.1881</v>
       </c>
       <c r="I14" s="1">
-        <v>122283.1171</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7367</v>
+        <v>118777.1881</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111526.0866</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2791</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119530.5713</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119530.5713</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119530.5713</v>
+        <v>118777.1881</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08359999999999999</v>
+        <v>-0.008</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.2605</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>547.6301</v>
       </c>
       <c r="G2" s="1">
-        <v>547.6301</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1394</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1394</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.0221</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>547.6301</v>
       </c>
       <c r="F3" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1102.5044</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19766.3608</v>
+        <v>9818.241599999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1405</v>
+        <v>9818.241599999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2605</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19766.3608</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0091</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.2846</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1102.5044</v>
       </c>
       <c r="F4" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1649.4128</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30002.4881</v>
+        <v>20054.335</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1883</v>
+        <v>20054.335</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1405</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30002.4881</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.007900000000000001</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.485</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1649.4128</v>
       </c>
       <c r="F5" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2256.0248</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>36997.9047</v>
+        <v>27049.7094</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.7303</v>
+        <v>27049.7094</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>18.1883</v>
+      </c>
+      <c r="M5" s="1">
         <v>1.538</v>
       </c>
-      <c r="L5" s="1">
-        <v>2283.1171</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7716.8829</v>
+        <v>1526.0866</v>
       </c>
       <c r="O5" s="1">
-        <v>2283.1171</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39281.0218</v>
+        <v>-8473.913399999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.018</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.9765</v>
       </c>
       <c r="E6" s="1">
+        <v>2256.0248</v>
+      </c>
+      <c r="F6" s="1">
+        <v>678.9435999999999</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>723.5365</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2979.5613</v>
-      </c>
       <c r="H6" s="1">
-        <v>50320.0232</v>
+        <v>38100.6496</v>
       </c>
       <c r="I6" s="1">
-        <v>52283.1171</v>
+        <v>1526.0866</v>
       </c>
       <c r="J6" s="1">
-        <v>17.5473</v>
+        <v>39626.7362</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>41526.0866</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.4068</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-12283.1171</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50320.0232</v>
+        <v>-11526.0866</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0211</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.414</v>
       </c>
       <c r="E7" s="1">
+        <v>2934.9685</v>
+      </c>
+      <c r="F7" s="1">
+        <v>574.2506</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>571.6518</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3551.2131</v>
-      </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>50844.5131</v>
       </c>
       <c r="I7" s="1">
-        <v>62237.8617</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5258</v>
+        <v>50844.5131</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51526.0866</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.5559</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-9954.744500000001</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>45.2555</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61565.4061</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0206</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.2974</v>
       </c>
       <c r="E8" s="1">
+        <v>3509.2191</v>
+      </c>
+      <c r="F8" s="1">
+        <v>453.7175</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>411.7234</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3962.9365</v>
-      </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63876.56</v>
       </c>
       <c r="I8" s="1">
-        <v>69771.3296</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.606</v>
+        <v>63876.56</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59827.9366</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.0488</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-7533.468</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>2511.7875</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74647.13959999999</v>
+        <v>-8301.849899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0431</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.699</v>
       </c>
       <c r="E9" s="1">
+        <v>3962.9365</v>
+      </c>
+      <c r="F9" s="1">
+        <v>660.9498</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>706.9206</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4669.8571</v>
-      </c>
       <c r="H9" s="1">
-        <v>82223.1082</v>
+        <v>69776.216</v>
       </c>
       <c r="I9" s="1">
-        <v>82283.1171</v>
+        <v>1698.1501</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6201</v>
+        <v>71474.3661</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71526.0866</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0488</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-12511.7875</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82223.1082</v>
+        <v>-11698.1501</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0286</v>
+        <v>-0.0325</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.0595</v>
       </c>
       <c r="E10" s="1">
+        <v>4623.8863</v>
+      </c>
+      <c r="F10" s="1">
+        <v>553.7252</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>544.7881</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5214.6452</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>83071.8165</v>
       </c>
       <c r="I10" s="1">
-        <v>92121.7175</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.666</v>
+        <v>83071.8165</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81526.0866</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6315</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9838.600399999999</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>161.3996</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93846.67230000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0176</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.696</v>
       </c>
       <c r="E11" s="1">
+        <v>5177.6115</v>
+      </c>
+      <c r="F11" s="1">
+        <v>447.5061</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>410.4724</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5625.1176</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>96298.91379999999</v>
       </c>
       <c r="I11" s="1">
-        <v>99795.9102</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7411</v>
+        <v>96298.91379999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89892.66160000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3618</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-7674.1927</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2487.2069</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>107109.3323</v>
+        <v>-8366.575000000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0314</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.8704</v>
       </c>
       <c r="E12" s="1">
+        <v>5625.1176</v>
+      </c>
+      <c r="F12" s="1">
+        <v>650.9885</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>698.7648</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6323.8825</v>
-      </c>
       <c r="H12" s="1">
-        <v>112424.0852</v>
+        <v>100001.6538</v>
       </c>
       <c r="I12" s="1">
-        <v>112283.1171</v>
+        <v>1633.425</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7554</v>
+        <v>101635.0788</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101526.0866</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.0487</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12487.2069</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112424.0852</v>
+        <v>-11633.425</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.04</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.5604</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6276.1061</v>
       </c>
       <c r="F13" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6893.3456</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>120422.6111</v>
+        <v>109639.8087</v>
       </c>
       <c r="I13" s="1">
-        <v>122283.1171</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7393</v>
+        <v>109639.8087</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111526.0866</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7699</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>120422.6111</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0163</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>17.4279</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6845.5693</v>
       </c>
       <c r="F14" s="1">
-        <v>-6893.3456</v>
+        <v>-6845.5693</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118685.0569</v>
       </c>
       <c r="I14" s="1">
-        <v>122283.1171</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7393</v>
+        <v>118685.0569</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111526.0866</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2917</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119513.3788</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119513.3788</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119513.3788</v>
+        <v>118685.0569</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08359999999999999</v>
+        <v>-0.008</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.2605</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>547.6301</v>
       </c>
       <c r="G2" s="1">
-        <v>547.6301</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1394</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1394</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.0221</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>547.6301</v>
       </c>
       <c r="F3" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1102.5044</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19766.3608</v>
+        <v>9818.241599999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1405</v>
+        <v>9818.241599999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2605</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19766.3608</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0091</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.2846</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1102.5044</v>
       </c>
       <c r="F4" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1649.4128</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30002.4881</v>
+        <v>20054.335</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1883</v>
+        <v>20054.335</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1405</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30002.4881</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.007900000000000001</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.485</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1649.4128</v>
       </c>
       <c r="F5" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2256.0248</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>36997.9047</v>
+        <v>27049.7094</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.7303</v>
+        <v>27049.7094</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>18.1883</v>
+      </c>
+      <c r="M5" s="1">
         <v>1.538</v>
       </c>
-      <c r="L5" s="1">
-        <v>2283.1171</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-7716.8829</v>
+        <v>1526.0866</v>
       </c>
       <c r="O5" s="1">
-        <v>2283.1171</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39281.0218</v>
+        <v>-8473.913399999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.018</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.9765</v>
       </c>
       <c r="E6" s="1">
+        <v>2256.0248</v>
+      </c>
+      <c r="F6" s="1">
+        <v>678.9435999999999</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>723.5365</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2979.5613</v>
-      </c>
       <c r="H6" s="1">
-        <v>50320.0232</v>
+        <v>38100.6496</v>
       </c>
       <c r="I6" s="1">
-        <v>52283.1171</v>
+        <v>1526.0866</v>
       </c>
       <c r="J6" s="1">
-        <v>17.5473</v>
+        <v>39626.7362</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>41526.0866</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.4068</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-12283.1171</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50320.0232</v>
+        <v>-11526.0866</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0211</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.414</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2934.9685</v>
       </c>
       <c r="F7" s="1">
         <v>574.2506</v>
       </c>
       <c r="G7" s="1">
-        <v>3553.8119</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61565.1714</v>
+        <v>50844.5131</v>
       </c>
       <c r="I7" s="1">
-        <v>62283.1171</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5257</v>
+        <v>50844.5131</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51526.0866</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.5559</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61565.1714</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0206</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.2974</v>
       </c>
       <c r="E8" s="1">
+        <v>3509.2191</v>
+      </c>
+      <c r="F8" s="1">
+        <v>513.8515</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>469.2587</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4023.0706</v>
-      </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>63876.56</v>
       </c>
       <c r="I8" s="1">
-        <v>70869.33040000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6157</v>
+        <v>63876.56</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60928.2331</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3623</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-8586.213299999999</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1413.7867</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74643.7286</v>
+        <v>-9402.146500000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.043</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.699</v>
       </c>
       <c r="E9" s="1">
+        <v>4023.0706</v>
+      </c>
+      <c r="F9" s="1">
+        <v>598.7826</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>644.8831</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4667.9537</v>
-      </c>
       <c r="H9" s="1">
-        <v>82189.59450000001</v>
+        <v>70835.008</v>
       </c>
       <c r="I9" s="1">
-        <v>82283.1171</v>
+        <v>597.8535000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6272</v>
+        <v>71432.8615</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71526.0866</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.779</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11413.7867</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82189.59450000001</v>
+        <v>-10597.8535</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.029</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.0595</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4621.8532</v>
       </c>
       <c r="F10" s="1">
         <v>553.7252</v>
       </c>
       <c r="G10" s="1">
-        <v>5221.6789</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93811.63860000001</v>
+        <v>83035.2898</v>
       </c>
       <c r="I10" s="1">
-        <v>92283.1171</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6731</v>
+        <v>83035.2898</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81526.0866</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6393</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93811.63860000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0176</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.696</v>
       </c>
       <c r="E11" s="1">
+        <v>5175.5784</v>
+      </c>
+      <c r="F11" s="1">
+        <v>534.8738</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>532.751</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5754.4299</v>
-      </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>96261.0996</v>
       </c>
       <c r="I11" s="1">
-        <v>102243.4295</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7678</v>
+        <v>96261.0996</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91526.0866</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6842</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-9960.312400000001</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>39.6876</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>107066.9043</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0314</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.8704</v>
       </c>
       <c r="E12" s="1">
+        <v>5710.4521</v>
+      </c>
+      <c r="F12" s="1">
+        <v>559.5846</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>561.8054</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6316.2353</v>
-      </c>
       <c r="H12" s="1">
-        <v>112288.1362</v>
+        <v>101518.7049</v>
       </c>
       <c r="I12" s="1">
-        <v>112283.1171</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7769</v>
+        <v>101518.7049</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101526.0866</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.779</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10039.6876</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112288.1362</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0408</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.5604</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6270.0367</v>
       </c>
       <c r="F13" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6885.6984</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>120289.0197</v>
+        <v>109533.7791</v>
       </c>
       <c r="I13" s="1">
-        <v>122283.1171</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.759</v>
+        <v>109533.7791</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111526.0866</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7872</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>120289.0197</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0163</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.4279</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6839.4998</v>
       </c>
       <c r="F14" s="1">
-        <v>-6885.6984</v>
+        <v>-6839.4998</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118579.828</v>
       </c>
       <c r="I14" s="1">
-        <v>122283.1171</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.759</v>
+        <v>118579.828</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111526.0866</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3062</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119380.7961</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119380.7961</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119380.7961</v>
+        <v>118579.828</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0837</v>
+        <v>-0.008</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.3809</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.7822</v>
+        <v>16.3188</v>
       </c>
       <c r="D3" s="1">
-        <v>17.7318</v>
+        <v>16.2746</v>
       </c>
       <c r="E3" s="1">
-        <v>17.7367</v>
+        <v>16.2791</v>
       </c>
       <c r="F3" s="1">
-        <v>17.7393</v>
+        <v>16.2917</v>
       </c>
       <c r="G3" s="1">
-        <v>17.759</v>
+        <v>16.3062</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0367</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0578</v>
+        <v>-0.0131</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.054</v>
+        <v>-0.009299999999999999</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0541</v>
+        <v>-0.009299999999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.054</v>
+        <v>-0.0103</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0554</v>
+        <v>-0.0114</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1383</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1175</v>
+        <v>0.1525</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1165</v>
+        <v>0.1515</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1173</v>
+        <v>0.1523</v>
       </c>
       <c r="F5" s="3">
-        <v>0.118</v>
+        <v>0.1528</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1184</v>
+        <v>0.1531</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.4127</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.6646</v>
+        <v>-0.2191</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.6375999999999999</v>
+        <v>-0.1954</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.6341</v>
+        <v>-0.1946</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.63</v>
+        <v>-0.2003</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.6397</v>
+        <v>-0.2075</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0121</v>
+        <v>-0.1745</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0068</v>
+        <v>-0.0187</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0073</v>
+        <v>-0.019</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0076</v>
+        <v>-0.0203</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.009599999999999999</v>
+        <v>-0.0218</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2283.1171</v>
+        <v>1526.0866</v>
       </c>
       <c r="D8" s="1">
-        <v>2282.9278</v>
+        <v>1526.0866</v>
       </c>
       <c r="E8" s="1">
-        <v>2283.1171</v>
+        <v>1526.0866</v>
       </c>
       <c r="F8" s="1">
-        <v>2283.1171</v>
+        <v>1526.0866</v>
       </c>
       <c r="G8" s="1">
-        <v>2283.1171</v>
+        <v>1526.0866</v>
       </c>
     </row>
   </sheetData>
